--- a/PPAP MASTER File (2023).xlsx
+++ b/PPAP MASTER File (2023).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santiago\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiray\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4CAA45-E5C6-4737-AACB-172E9AD20916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337AB1CA-78C8-4E10-B54D-75392B0C6277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28635" yWindow="-165" windowWidth="29130" windowHeight="15810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PPAP 2023" sheetId="8" r:id="rId1"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3173" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3181" uniqueCount="371">
   <si>
     <t>Initial PPAP</t>
   </si>
@@ -1222,6 +1222,15 @@
   </si>
   <si>
     <t>Customer PN "40194871" no esta en la base de datos</t>
+  </si>
+  <si>
+    <t>No tiene fechas</t>
+  </si>
+  <si>
+    <t>No tiene cliente. No tiene fechas</t>
+  </si>
+  <si>
+    <t>No tiene fechas. No tiene Customer PN. No tiene el ET PN completo</t>
   </si>
 </sst>
 </file>
@@ -2248,12 +2257,12 @@
   </sheetPr>
   <dimension ref="A1:AF181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="97" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F159" sqref="F159"/>
+    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="58" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F171" sqref="F171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.36328125" style="2" customWidth="1"/>
     <col min="2" max="2" width="33.90625" style="5" customWidth="1"/>
@@ -13679,6 +13688,7 @@
         <v>45167</v>
       </c>
       <c r="AC159" s="3"/>
+      <c r="AF159" s="163"/>
     </row>
     <row r="160" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B160" s="5" t="s">
@@ -13727,8 +13737,9 @@
         <v>45167</v>
       </c>
       <c r="AC160" s="3"/>
-    </row>
-    <row r="161" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AF160" s="163"/>
+    </row>
+    <row r="161" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A161" s="51" t="s">
         <v>37</v>
       </c>
@@ -13777,8 +13788,9 @@
       <c r="AB161" s="51"/>
       <c r="AC161" s="51"/>
       <c r="AD161" s="51"/>
-    </row>
-    <row r="162" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AF161" s="163"/>
+    </row>
+    <row r="162" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A162" s="51" t="s">
         <v>37</v>
       </c>
@@ -13828,8 +13840,9 @@
       <c r="AB162" s="51"/>
       <c r="AC162" s="51"/>
       <c r="AD162" s="51"/>
-    </row>
-    <row r="163" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AF162" s="163"/>
+    </row>
+    <row r="163" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A163" s="51" t="s">
         <v>37</v>
       </c>
@@ -13880,8 +13893,9 @@
       <c r="AB163" s="51"/>
       <c r="AC163" s="51"/>
       <c r="AD163" s="51"/>
-    </row>
-    <row r="164" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AF163" s="163"/>
+    </row>
+    <row r="164" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A164" s="51" t="s">
         <v>37</v>
       </c>
@@ -13940,8 +13954,11 @@
       <c r="AB164" s="51"/>
       <c r="AC164" s="51"/>
       <c r="AD164" s="51"/>
-    </row>
-    <row r="165" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AF164" s="164" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="165" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A165" s="15" t="s">
         <v>333</v>
       </c>
@@ -13976,8 +13993,11 @@
         <v>175098</v>
       </c>
       <c r="AB165" s="3"/>
-    </row>
-    <row r="166" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AF165" s="161" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="166" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B166" s="91" t="s">
         <v>104</v>
       </c>
@@ -13993,8 +14013,11 @@
       <c r="K166" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="167" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AF166" s="161" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="167" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A167" s="26" t="s">
         <v>32</v>
       </c>
@@ -14037,8 +14060,11 @@
         <v>45251</v>
       </c>
       <c r="AD167" s="26"/>
-    </row>
-    <row r="168" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AF167" s="161" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="168" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B168" s="5" t="s">
         <v>44</v>
       </c>
@@ -14057,8 +14083,11 @@
       <c r="K168" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="169" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AF168" s="161" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="169" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B169" s="5" t="s">
         <v>44</v>
       </c>
@@ -14077,8 +14106,11 @@
       <c r="K169" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="170" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AF169" s="161" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="170" spans="1:32" x14ac:dyDescent="0.3">
       <c r="B170" s="5" t="s">
         <v>280</v>
       </c>
@@ -14097,8 +14129,11 @@
       <c r="K170" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="171" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AF170" s="161" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="171" spans="1:32" x14ac:dyDescent="0.3">
       <c r="F171" s="5" t="s">
         <v>356</v>
       </c>
@@ -14114,8 +14149,11 @@
       <c r="J171" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="172" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AF171" s="161" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="172" spans="1:32" x14ac:dyDescent="0.3">
       <c r="D172" s="1" t="s">
         <v>344</v>
       </c>
@@ -14156,7 +14194,7 @@
       <selection pane="bottomLeft" activeCell="L138" sqref="L138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.1796875" style="2" customWidth="1"/>
     <col min="2" max="2" width="33" style="5" customWidth="1"/>
@@ -23830,7 +23868,7 @@
       <selection pane="bottomLeft" activeCell="AC3" sqref="AC3:AC4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33.7265625" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.26953125" style="139" hidden="1" customWidth="1"/>
@@ -31909,26 +31947,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="31bae7fc-a932-48d2-a4fd-52f4a9d31701" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b65375f3-1c6a-4efc-a0ff-b5cb5b57e446">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100151DCF064A99D441887C557583945FE2" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="37471ec268efa06fb30c57d33270148f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b65375f3-1c6a-4efc-a0ff-b5cb5b57e446" xmlns:ns3="31bae7fc-a932-48d2-a4fd-52f4a9d31701" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="46658c2591ee73c71b541e67d9286acd" ns2:_="" ns3:_="">
     <xsd:import namespace="b65375f3-1c6a-4efc-a0ff-b5cb5b57e446"/>
@@ -32129,10 +32147,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="31bae7fc-a932-48d2-a4fd-52f4a9d31701" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="b65375f3-1c6a-4efc-a0ff-b5cb5b57e446">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33EE3C7B-0018-43F4-8F80-86D6B3D880A6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E994A4C0-B8D6-4654-896B-8A5B6E995AE8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b65375f3-1c6a-4efc-a0ff-b5cb5b57e446"/>
+    <ds:schemaRef ds:uri="31bae7fc-a932-48d2-a4fd-52f4a9d31701"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -32149,20 +32198,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E994A4C0-B8D6-4654-896B-8A5B6E995AE8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33EE3C7B-0018-43F4-8F80-86D6B3D880A6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b65375f3-1c6a-4efc-a0ff-b5cb5b57e446"/>
-    <ds:schemaRef ds:uri="31bae7fc-a932-48d2-a4fd-52f4a9d31701"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>